--- a/Minutes/May Minutes.xlsx
+++ b/Minutes/May Minutes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB1EFD-0A66-4E1A-BAFE-3DB3B7D74466}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E807F-6D62-43CE-8384-943F4155BDE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
+    <workbookView xWindow="60" yWindow="15" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D9AF1C6F-8C75-422F-BB01-B938004A8175}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0405" sheetId="1" r:id="rId1"/>
+    <sheet name="0505" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Date:</t>
   </si>
@@ -124,13 +125,46 @@
   </si>
   <si>
     <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>Emily, Hamza, Jess, Stanni have started - Jess has updated GitHub</t>
+  </si>
+  <si>
+    <t>Wenda and Stanni to look at</t>
+  </si>
+  <si>
+    <t>Completed (met with Marceli - all on track)</t>
+  </si>
+  <si>
+    <t>Transcribe feedback sessions</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Create seeding script</t>
+  </si>
+  <si>
+    <t>Thematic analysis of feedback</t>
+  </si>
+  <si>
+    <t>Stanni &amp; Wenda</t>
+  </si>
+  <si>
+    <t>End of this week</t>
+  </si>
+  <si>
+    <t>Deploy website</t>
+  </si>
+  <si>
+    <t>If we have enough time next week (after writing documentation) we will integrate POST functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +183,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF66FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -190,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD08DE8-BC6B-498E-A1CD-5B3BC9D57D3E}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" activeCellId="1" sqref="A22 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +703,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -671,4 +714,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F359-C01B-48A0-A744-C78F9F5794EF}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>